--- a/src/test/resources/Data11.xlsx
+++ b/src/test/resources/Data11.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GitHub\java-web-demo\code\java-web-demo\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GitHub\selenium-java-demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="PDRC_ProfileBaseInfo" sheetId="17" r:id="rId1"/>
-    <sheet name="T_MenuInfo" sheetId="16" r:id="rId2"/>
-    <sheet name="T_Users" sheetId="4" r:id="rId3"/>
-    <sheet name="PDRC_TM" sheetId="2" r:id="rId4"/>
-    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId5"/>
-    <sheet name="PDRC_RM" sheetId="1" r:id="rId6"/>
-    <sheet name="PDRC_PDM" sheetId="11" r:id="rId7"/>
-    <sheet name="PDRC_PGM" sheetId="10" r:id="rId8"/>
-    <sheet name="PDRC_PM" sheetId="9" r:id="rId9"/>
-    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId10"/>
+    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId2"/>
+    <sheet name="T_MenuInfo" sheetId="16" r:id="rId3"/>
+    <sheet name="T_Users" sheetId="4" r:id="rId4"/>
+    <sheet name="PDRC_TM" sheetId="2" r:id="rId5"/>
+    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId6"/>
+    <sheet name="PDRC_RM" sheetId="1" r:id="rId7"/>
+    <sheet name="PDRC_PDM" sheetId="11" r:id="rId8"/>
+    <sheet name="PDRC_PGM" sheetId="10" r:id="rId9"/>
+    <sheet name="PDRC_PM" sheetId="9" r:id="rId10"/>
     <sheet name="ISBG_Project" sheetId="6" r:id="rId11"/>
     <sheet name="ISBG_Project_Finish" sheetId="15" r:id="rId12"/>
     <sheet name="ISBG_HumanMap" sheetId="13" r:id="rId13"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="606">
   <si>
     <t>ID</t>
   </si>
@@ -1681,15 +1681,239 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>E0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0836</t>
+  </si>
+  <si>
+    <t>U0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0837</t>
+  </si>
+  <si>
+    <t>M0838</t>
+  </si>
+  <si>
+    <t>M0839</t>
+  </si>
+  <si>
+    <t>M0840</t>
+  </si>
+  <si>
+    <t>M0841</t>
+  </si>
+  <si>
+    <t>M0842</t>
+  </si>
+  <si>
+    <t>M0843</t>
+  </si>
+  <si>
+    <t>M0844</t>
+  </si>
+  <si>
+    <t>M0845</t>
+  </si>
+  <si>
+    <t>M0846</t>
+  </si>
+  <si>
+    <t>M0847</t>
+  </si>
+  <si>
+    <t>M0848</t>
+  </si>
+  <si>
+    <t>M0849</t>
+  </si>
+  <si>
+    <t>M0850</t>
+  </si>
+  <si>
+    <t>M0851</t>
+  </si>
+  <si>
+    <t>M0852</t>
+  </si>
+  <si>
+    <t>M0853</t>
+  </si>
+  <si>
+    <t>M0854</t>
+  </si>
+  <si>
+    <t>M0855</t>
+  </si>
+  <si>
+    <t>M0856</t>
+  </si>
+  <si>
+    <t>M0857</t>
+  </si>
+  <si>
+    <t>M0858</t>
+  </si>
+  <si>
+    <t>M0859</t>
+  </si>
+  <si>
+    <t>M0860</t>
+  </si>
+  <si>
+    <t>M0861</t>
+  </si>
+  <si>
+    <t>M0862</t>
+  </si>
+  <si>
+    <t>M0863</t>
+  </si>
+  <si>
+    <t>M0864</t>
+  </si>
+  <si>
+    <t>M0865</t>
+  </si>
+  <si>
+    <t>M0866</t>
+  </si>
+  <si>
+    <t>M0867</t>
+  </si>
+  <si>
+    <t>M0868</t>
+  </si>
+  <si>
+    <t>M0869</t>
+  </si>
+  <si>
+    <t>M0870</t>
+  </si>
+  <si>
+    <t>U0004</t>
+  </si>
+  <si>
+    <t>U0005</t>
+  </si>
+  <si>
+    <t>U0006</t>
+  </si>
+  <si>
+    <t>U0007</t>
+  </si>
+  <si>
+    <t>U0008</t>
+  </si>
+  <si>
+    <t>U0009</t>
+  </si>
+  <si>
+    <t>U0010</t>
+  </si>
+  <si>
+    <t>U0011</t>
+  </si>
+  <si>
+    <t>U0012</t>
+  </si>
+  <si>
+    <t>U0013</t>
+  </si>
+  <si>
+    <t>U0014</t>
+  </si>
+  <si>
+    <t>U0015</t>
+  </si>
+  <si>
+    <t>U0016</t>
+  </si>
+  <si>
+    <t>U0017</t>
+  </si>
+  <si>
+    <t>U0018</t>
+  </si>
+  <si>
+    <t>U0019</t>
+  </si>
+  <si>
+    <t>U0020</t>
+  </si>
+  <si>
+    <t>U0021</t>
+  </si>
+  <si>
+    <t>U0022</t>
+  </si>
+  <si>
+    <t>U0023</t>
+  </si>
+  <si>
+    <t>U0024</t>
+  </si>
+  <si>
+    <t>U0025</t>
+  </si>
+  <si>
+    <t>U0026</t>
+  </si>
+  <si>
+    <t>U0027</t>
+  </si>
+  <si>
+    <t>U0028</t>
+  </si>
+  <si>
+    <t>U0029</t>
+  </si>
+  <si>
+    <t>U0030</t>
+  </si>
+  <si>
+    <t>U0031</t>
+  </si>
+  <si>
+    <t>U0032</t>
+  </si>
+  <si>
+    <t>U0033</t>
+  </si>
+  <si>
+    <t>U0034</t>
+  </si>
+  <si>
+    <t>U0035</t>
+  </si>
+  <si>
+    <t>U0036</t>
+  </si>
+  <si>
+    <t>U0037</t>
+  </si>
+  <si>
+    <t>E0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1922,7 +2146,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2264,23 +2488,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
@@ -2338,19 +2562,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="28">
-        <v>42558.462766203702</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
+        <v>42558</v>
+      </c>
+      <c r="F2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H2" t="s">
+        <v>535</v>
       </c>
       <c r="I2" s="28">
-        <v>42558.462766203702</v>
+        <v>42558</v>
       </c>
       <c r="J2" t="s">
         <v>532</v>
@@ -2358,8 +2582,1300 @@
       <c r="K2" t="s">
         <v>153</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28">
+        <v>42559</v>
+      </c>
+      <c r="F3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I3" s="28">
+        <v>42559</v>
+      </c>
+      <c r="J3" t="s">
+        <v>532</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="23">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="28">
+        <v>42560</v>
+      </c>
+      <c r="F4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H4" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="28">
+        <v>42560</v>
+      </c>
+      <c r="J4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="28">
+        <v>42561</v>
+      </c>
+      <c r="F5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G5" t="s">
+        <v>538</v>
+      </c>
+      <c r="H5" t="s">
+        <v>572</v>
+      </c>
+      <c r="I5" s="28">
+        <v>42561</v>
+      </c>
+      <c r="J5" t="s">
+        <v>532</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="28">
+        <v>42562</v>
+      </c>
+      <c r="F6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H6" t="s">
+        <v>573</v>
+      </c>
+      <c r="I6" s="28">
+        <v>42562</v>
+      </c>
+      <c r="J6" t="s">
+        <v>532</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="28">
+        <v>42563</v>
+      </c>
+      <c r="F7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H7" t="s">
+        <v>574</v>
+      </c>
+      <c r="I7" s="28">
+        <v>42563</v>
+      </c>
+      <c r="J7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="28">
+        <v>42564</v>
+      </c>
+      <c r="F8" t="s">
+        <v>533</v>
+      </c>
+      <c r="G8" t="s">
+        <v>541</v>
+      </c>
+      <c r="H8" t="s">
+        <v>575</v>
+      </c>
+      <c r="I8" s="28">
+        <v>42564</v>
+      </c>
+      <c r="J8" t="s">
+        <v>532</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="23">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="28">
+        <v>42565</v>
+      </c>
+      <c r="F9" t="s">
+        <v>604</v>
+      </c>
+      <c r="G9" t="s">
+        <v>542</v>
+      </c>
+      <c r="H9" t="s">
+        <v>576</v>
+      </c>
+      <c r="I9" s="28">
+        <v>42565</v>
+      </c>
+      <c r="J9" t="s">
+        <v>532</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="28">
+        <v>42566</v>
+      </c>
+      <c r="F10" t="s">
+        <v>605</v>
+      </c>
+      <c r="G10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I10" s="28">
+        <v>42566</v>
+      </c>
+      <c r="J10" t="s">
+        <v>532</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="28">
+        <v>42567</v>
+      </c>
+      <c r="F11" t="s">
+        <v>533</v>
+      </c>
+      <c r="G11" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" t="s">
+        <v>578</v>
+      </c>
+      <c r="I11" s="28">
+        <v>42567</v>
+      </c>
+      <c r="J11" t="s">
+        <v>532</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="28">
+        <v>42568</v>
+      </c>
+      <c r="F12" t="s">
+        <v>604</v>
+      </c>
+      <c r="G12" t="s">
+        <v>545</v>
+      </c>
+      <c r="H12" t="s">
+        <v>579</v>
+      </c>
+      <c r="I12" s="28">
+        <v>42568</v>
+      </c>
+      <c r="J12" t="s">
+        <v>532</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="28">
+        <v>42569</v>
+      </c>
+      <c r="F13" t="s">
+        <v>605</v>
+      </c>
+      <c r="G13" t="s">
+        <v>546</v>
+      </c>
+      <c r="H13" t="s">
+        <v>580</v>
+      </c>
+      <c r="I13" s="28">
+        <v>42569</v>
+      </c>
+      <c r="J13" t="s">
+        <v>532</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="23">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="28">
+        <v>42570</v>
+      </c>
+      <c r="F14" t="s">
+        <v>533</v>
+      </c>
+      <c r="G14" t="s">
+        <v>547</v>
+      </c>
+      <c r="H14" t="s">
+        <v>581</v>
+      </c>
+      <c r="I14" s="28">
+        <v>42570</v>
+      </c>
+      <c r="J14" t="s">
+        <v>532</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="23">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="28">
+        <v>42571</v>
+      </c>
+      <c r="F15" t="s">
+        <v>604</v>
+      </c>
+      <c r="G15" t="s">
+        <v>548</v>
+      </c>
+      <c r="H15" t="s">
+        <v>582</v>
+      </c>
+      <c r="I15" s="28">
+        <v>42571</v>
+      </c>
+      <c r="J15" t="s">
+        <v>532</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="23">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" s="28">
+        <v>42572</v>
+      </c>
+      <c r="F16" t="s">
+        <v>605</v>
+      </c>
+      <c r="G16" t="s">
+        <v>549</v>
+      </c>
+      <c r="H16" t="s">
+        <v>583</v>
+      </c>
+      <c r="I16" s="28">
+        <v>42572</v>
+      </c>
+      <c r="J16" t="s">
+        <v>532</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="28">
+        <v>42573</v>
+      </c>
+      <c r="F17" t="s">
+        <v>533</v>
+      </c>
+      <c r="G17" t="s">
+        <v>550</v>
+      </c>
+      <c r="H17" t="s">
+        <v>584</v>
+      </c>
+      <c r="I17" s="28">
+        <v>42573</v>
+      </c>
+      <c r="J17" t="s">
+        <v>532</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="28">
+        <v>42574</v>
+      </c>
+      <c r="F18" t="s">
+        <v>604</v>
+      </c>
+      <c r="G18" t="s">
+        <v>551</v>
+      </c>
+      <c r="H18" t="s">
+        <v>585</v>
+      </c>
+      <c r="I18" s="28">
+        <v>42574</v>
+      </c>
+      <c r="J18" t="s">
+        <v>532</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="28">
+        <v>42575</v>
+      </c>
+      <c r="F19" t="s">
+        <v>605</v>
+      </c>
+      <c r="G19" t="s">
+        <v>552</v>
+      </c>
+      <c r="H19" t="s">
+        <v>586</v>
+      </c>
+      <c r="I19" s="28">
+        <v>42575</v>
+      </c>
+      <c r="J19" t="s">
+        <v>532</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="23">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="28">
+        <v>42576</v>
+      </c>
+      <c r="F20" t="s">
+        <v>533</v>
+      </c>
+      <c r="G20" t="s">
+        <v>553</v>
+      </c>
+      <c r="H20" t="s">
+        <v>587</v>
+      </c>
+      <c r="I20" s="28">
+        <v>42576</v>
+      </c>
+      <c r="J20" t="s">
+        <v>532</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="28">
+        <v>42577</v>
+      </c>
+      <c r="F21" t="s">
+        <v>604</v>
+      </c>
+      <c r="G21" t="s">
+        <v>554</v>
+      </c>
+      <c r="H21" t="s">
+        <v>588</v>
+      </c>
+      <c r="I21" s="28">
+        <v>42577</v>
+      </c>
+      <c r="J21" t="s">
+        <v>532</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="28">
+        <v>42578</v>
+      </c>
+      <c r="F22" t="s">
+        <v>605</v>
+      </c>
+      <c r="G22" t="s">
+        <v>555</v>
+      </c>
+      <c r="H22" t="s">
+        <v>589</v>
+      </c>
+      <c r="I22" s="28">
+        <v>42578</v>
+      </c>
+      <c r="J22" t="s">
+        <v>532</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="23">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" s="28">
+        <v>42579</v>
+      </c>
+      <c r="F23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G23" t="s">
+        <v>556</v>
+      </c>
+      <c r="H23" t="s">
+        <v>590</v>
+      </c>
+      <c r="I23" s="28">
+        <v>42579</v>
+      </c>
+      <c r="J23" t="s">
+        <v>532</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" s="28">
+        <v>42580</v>
+      </c>
+      <c r="F24" t="s">
+        <v>604</v>
+      </c>
+      <c r="G24" t="s">
+        <v>557</v>
+      </c>
+      <c r="H24" t="s">
+        <v>591</v>
+      </c>
+      <c r="I24" s="28">
+        <v>42580</v>
+      </c>
+      <c r="J24" t="s">
+        <v>532</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="23">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="28">
+        <v>42581</v>
+      </c>
+      <c r="F25" t="s">
+        <v>605</v>
+      </c>
+      <c r="G25" t="s">
+        <v>558</v>
+      </c>
+      <c r="H25" t="s">
+        <v>592</v>
+      </c>
+      <c r="I25" s="28">
+        <v>42581</v>
+      </c>
+      <c r="J25" t="s">
+        <v>532</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="28">
+        <v>42582</v>
+      </c>
+      <c r="F26" t="s">
+        <v>533</v>
+      </c>
+      <c r="G26" t="s">
+        <v>559</v>
+      </c>
+      <c r="H26" t="s">
+        <v>593</v>
+      </c>
+      <c r="I26" s="28">
+        <v>42582</v>
+      </c>
+      <c r="J26" t="s">
+        <v>532</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="23">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" s="28">
+        <v>42583</v>
+      </c>
+      <c r="F27" t="s">
+        <v>604</v>
+      </c>
+      <c r="G27" t="s">
+        <v>560</v>
+      </c>
+      <c r="H27" t="s">
+        <v>594</v>
+      </c>
+      <c r="I27" s="28">
+        <v>42583</v>
+      </c>
+      <c r="J27" t="s">
+        <v>532</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="23">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" s="28">
+        <v>42584</v>
+      </c>
+      <c r="F28" t="s">
+        <v>605</v>
+      </c>
+      <c r="G28" t="s">
+        <v>561</v>
+      </c>
+      <c r="H28" t="s">
+        <v>595</v>
+      </c>
+      <c r="I28" s="28">
+        <v>42584</v>
+      </c>
+      <c r="J28" t="s">
+        <v>532</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="28">
+        <v>42585</v>
+      </c>
+      <c r="F29" t="s">
+        <v>533</v>
+      </c>
+      <c r="G29" t="s">
+        <v>562</v>
+      </c>
+      <c r="H29" t="s">
+        <v>596</v>
+      </c>
+      <c r="I29" s="28">
+        <v>42585</v>
+      </c>
+      <c r="J29" t="s">
+        <v>532</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="23">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="28">
+        <v>42586</v>
+      </c>
+      <c r="F30" t="s">
+        <v>604</v>
+      </c>
+      <c r="G30" t="s">
+        <v>563</v>
+      </c>
+      <c r="H30" t="s">
+        <v>597</v>
+      </c>
+      <c r="I30" s="28">
+        <v>42586</v>
+      </c>
+      <c r="J30" t="s">
+        <v>532</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" s="28">
+        <v>42587</v>
+      </c>
+      <c r="F31" t="s">
+        <v>605</v>
+      </c>
+      <c r="G31" t="s">
+        <v>564</v>
+      </c>
+      <c r="H31" t="s">
+        <v>598</v>
+      </c>
+      <c r="I31" s="28">
+        <v>42587</v>
+      </c>
+      <c r="J31" t="s">
+        <v>532</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" s="28">
+        <v>42588</v>
+      </c>
+      <c r="F32" t="s">
+        <v>533</v>
+      </c>
+      <c r="G32" t="s">
+        <v>565</v>
+      </c>
+      <c r="H32" t="s">
+        <v>599</v>
+      </c>
+      <c r="I32" s="28">
+        <v>42588</v>
+      </c>
+      <c r="J32" t="s">
+        <v>532</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="23">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="28">
+        <v>42589</v>
+      </c>
+      <c r="F33" t="s">
+        <v>604</v>
+      </c>
+      <c r="G33" t="s">
+        <v>566</v>
+      </c>
+      <c r="H33" t="s">
+        <v>600</v>
+      </c>
+      <c r="I33" s="28">
+        <v>42589</v>
+      </c>
+      <c r="J33" t="s">
+        <v>532</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="28">
+        <v>42590</v>
+      </c>
+      <c r="F34" t="s">
+        <v>605</v>
+      </c>
+      <c r="G34" t="s">
+        <v>567</v>
+      </c>
+      <c r="H34" t="s">
+        <v>601</v>
+      </c>
+      <c r="I34" s="28">
+        <v>42590</v>
+      </c>
+      <c r="J34" t="s">
+        <v>532</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" s="28">
+        <v>42591</v>
+      </c>
+      <c r="F35" t="s">
+        <v>533</v>
+      </c>
+      <c r="G35" t="s">
+        <v>568</v>
+      </c>
+      <c r="H35" t="s">
+        <v>602</v>
+      </c>
+      <c r="I35" s="28">
+        <v>42591</v>
+      </c>
+      <c r="J35" t="s">
+        <v>532</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" s="28">
+        <v>42592</v>
+      </c>
+      <c r="F36" t="s">
+        <v>604</v>
+      </c>
+      <c r="G36" t="s">
+        <v>569</v>
+      </c>
+      <c r="H36" t="s">
+        <v>603</v>
+      </c>
+      <c r="I36" s="28">
+        <v>42592</v>
+      </c>
+      <c r="J36" t="s">
+        <v>532</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2371,1073 +3887,89 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H2" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I2" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H3" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I3" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H4" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I4" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H5" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I5" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H6" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I6" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H7" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I7" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="23">
-        <v>2.1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H8" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I8" s="3">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H9" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I9" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H10" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I10" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H11" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I11" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H12" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I12" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H13" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I13" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H14" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I14" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H15" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I15" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H16" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I16" s="3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H17" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I17" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H18" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I18" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H19" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I19" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H20" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I20" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H21" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I21" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H22" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H23" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I23" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1.7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H24" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I24" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H25" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I25" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H26" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I26" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H27" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I27" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H28" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I28" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1.7</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H29" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I29" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H30" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I30" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H31" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I31" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1.7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H32" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I32" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H33" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I33" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H34" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I34" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H35" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I35" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="23">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H36" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I36" s="3">
-        <v>20000</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6720,6 +7252,1078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H2" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I2" s="3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H3" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I3" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H4" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I4" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H5" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I5" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H6" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I6" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H7" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I7" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H8" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I8" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H9" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H10" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H11" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I11" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H12" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H13" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I13" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I14" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H15" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I15" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H16" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I16" s="3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H17" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H18" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I18" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H19" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I19" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H20" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I20" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H21" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I21" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H22" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H23" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I23" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H24" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I24" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H25" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I25" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H26" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I26" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H27" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I27" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H28" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I28" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H29" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I29" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H30" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I30" s="3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H31" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I31" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H32" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I32" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H33" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I33" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H34" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I34" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H35" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="23">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H36" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6883,7 +8487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -7692,7 +9296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -7759,7 +9363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -7792,7 +9396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -7826,7 +9430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7862,7 +9466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -7915,92 +9519,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>